--- a/students.xlsx
+++ b/students.xlsx
@@ -553,13 +553,13 @@
         <v>20</v>
       </c>
       <c r="H5" t="str">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="I5" t="str">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="J5" t="str">
-        <v>12.6</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="6">

--- a/students.xlsx
+++ b/students.xlsx
@@ -480,22 +480,22 @@
         <v>1- 2ث</v>
       </c>
       <c r="E3" t="str">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F3" t="str">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H3" t="str">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I3" t="str">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J3" t="str">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="4">
@@ -553,13 +553,13 @@
         <v>20</v>
       </c>
       <c r="H5" t="str">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="I5" t="str">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="J5" t="str">
-        <v>18.0</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="6">

--- a/students.xlsx
+++ b/students.xlsx
@@ -489,13 +489,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="str">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I3" t="str">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J3" t="str">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
